--- a/Største 50 industribedrifter.xlsx
+++ b/Største 50 industribedrifter.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljoschaschopfer/Documents/GitHub/14788_firmaspesifikke_klimagassutslipp_til_norges_bank/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{318D727A-EF57-2246-AECB-451F6FC5F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-19500" yWindow="-28300" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>orgnr</t>
   </si>
@@ -37,7 +40,7 @@
     <t>sn2007</t>
   </si>
   <si>
-    <t>sn2007s</t>
+    <t>sn2007s_tosifrer</t>
   </si>
   <si>
     <t>selskap_form</t>
@@ -55,9 +58,6 @@
     <t>oms2022</t>
   </si>
   <si>
-    <t>sn2007s_tosifrer</t>
-  </si>
-  <si>
     <t>rapportert_utslipp_ind</t>
   </si>
   <si>
@@ -299,132 +299,6 @@
   </si>
   <si>
     <t>VENNESLA</t>
-  </si>
-  <si>
-    <t>30113</t>
-  </si>
-  <si>
-    <t>25400</t>
-  </si>
-  <si>
-    <t>26510</t>
-  </si>
-  <si>
-    <t>30300</t>
-  </si>
-  <si>
-    <t>26110</t>
-  </si>
-  <si>
-    <t>19200.0</t>
-  </si>
-  <si>
-    <t>33200</t>
-  </si>
-  <si>
-    <t>10850.0</t>
-  </si>
-  <si>
-    <t>18130.0</t>
-  </si>
-  <si>
-    <t>20130.0</t>
-  </si>
-  <si>
-    <t>23990.0</t>
-  </si>
-  <si>
-    <t>20590</t>
-  </si>
-  <si>
-    <t>28920</t>
-  </si>
-  <si>
-    <t>31090</t>
-  </si>
-  <si>
-    <t>21200</t>
-  </si>
-  <si>
-    <t>28130</t>
-  </si>
-  <si>
-    <t>30116</t>
-  </si>
-  <si>
-    <t>33120.0</t>
-  </si>
-  <si>
-    <t>10820</t>
-  </si>
-  <si>
-    <t>20110</t>
-  </si>
-  <si>
-    <t>16100</t>
-  </si>
-  <si>
-    <t>27120.0</t>
-  </si>
-  <si>
-    <t>11070</t>
-  </si>
-  <si>
-    <t>10890</t>
-  </si>
-  <si>
-    <t>10710</t>
-  </si>
-  <si>
-    <t>10209</t>
-  </si>
-  <si>
-    <t>27400.0</t>
-  </si>
-  <si>
-    <t>28990.0</t>
-  </si>
-  <si>
-    <t>33120</t>
-  </si>
-  <si>
-    <t>16232</t>
-  </si>
-  <si>
-    <t>23990</t>
-  </si>
-  <si>
-    <t>33170</t>
-  </si>
-  <si>
-    <t>29320</t>
-  </si>
-  <si>
-    <t>13929</t>
-  </si>
-  <si>
-    <t>33160</t>
-  </si>
-  <si>
-    <t>28130.0</t>
-  </si>
-  <si>
-    <t>20410</t>
-  </si>
-  <si>
-    <t>10910</t>
-  </si>
-  <si>
-    <t>20150</t>
-  </si>
-  <si>
-    <t>32500</t>
-  </si>
-  <si>
-    <t>26600</t>
-  </si>
-  <si>
-    <t>29310.0</t>
   </si>
   <si>
     <t>AS</t>
@@ -442,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +380,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +432,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -584,6 +466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -618,9 +501,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,2660 +727,2354 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>984735227</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>469510</v>
-      </c>
-      <c r="C2">
-        <v>984735227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>1108</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>4313</v>
       </c>
       <c r="G2">
-        <v>4313</v>
+        <v>30113</v>
       </c>
       <c r="H2">
-        <v>30113</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J2">
+        <v>3383</v>
       </c>
       <c r="K2">
         <v>3383</v>
       </c>
       <c r="L2">
-        <v>3383</v>
+        <v>6340399</v>
       </c>
       <c r="M2">
-        <v>6340399</v>
+        <v>10857187</v>
       </c>
       <c r="N2">
-        <v>10857187</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>415199</v>
-      </c>
-      <c r="C3">
         <v>978614582</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>3006</v>
       </c>
-      <c r="F3" t="s">
-        <v>67</v>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>3616</v>
       </c>
       <c r="G3">
-        <v>3616</v>
+        <v>25400</v>
       </c>
       <c r="H3">
-        <v>25400</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J3">
+        <v>2917</v>
       </c>
       <c r="K3">
         <v>2917</v>
       </c>
       <c r="L3">
-        <v>2917</v>
+        <v>4983156</v>
       </c>
       <c r="M3">
-        <v>4983156</v>
+        <v>10669344</v>
       </c>
       <c r="N3">
-        <v>10669344</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>423820</v>
-      </c>
-      <c r="C4">
         <v>979750730</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>3006</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>3616</v>
       </c>
       <c r="G4">
-        <v>3616</v>
+        <v>26510</v>
       </c>
       <c r="H4">
-        <v>26510</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>3481</v>
       </c>
       <c r="K4">
         <v>3481</v>
       </c>
       <c r="L4">
-        <v>3481</v>
+        <v>4581911</v>
       </c>
       <c r="M4">
-        <v>4581911</v>
+        <v>11704668</v>
       </c>
       <c r="N4">
-        <v>11704668</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>26</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>481512</v>
-      </c>
-      <c r="C5">
         <v>986051678</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>3006</v>
       </c>
-      <c r="F5" t="s">
-        <v>67</v>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>3616</v>
       </c>
       <c r="G5">
-        <v>3616</v>
+        <v>30113</v>
       </c>
       <c r="H5">
-        <v>30113</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>2168</v>
       </c>
       <c r="K5">
         <v>2168</v>
       </c>
       <c r="L5">
-        <v>2168</v>
+        <v>2770002</v>
       </c>
       <c r="M5">
-        <v>2770002</v>
+        <v>7465188</v>
       </c>
       <c r="N5">
-        <v>7465188</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>30</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>350883</v>
-      </c>
-      <c r="C6">
         <v>943771030</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>3006</v>
       </c>
-      <c r="F6" t="s">
-        <v>67</v>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>3616</v>
       </c>
       <c r="G6">
-        <v>3616</v>
+        <v>30300</v>
       </c>
       <c r="H6">
-        <v>30300</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>332</v>
       </c>
       <c r="K6">
         <v>332</v>
       </c>
       <c r="L6">
-        <v>332</v>
+        <v>2634968</v>
       </c>
       <c r="M6">
-        <v>2634968</v>
+        <v>3351463</v>
       </c>
       <c r="N6">
-        <v>3351463</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>30</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>382102</v>
-      </c>
-      <c r="C7">
         <v>966011726</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>5001</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>7052</v>
       </c>
       <c r="G7">
-        <v>7052</v>
+        <v>26110</v>
       </c>
       <c r="H7">
-        <v>26110</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>696</v>
       </c>
       <c r="K7">
         <v>696</v>
       </c>
       <c r="L7">
-        <v>696</v>
+        <v>2610069</v>
       </c>
       <c r="M7">
-        <v>2610069</v>
+        <v>7477206</v>
       </c>
       <c r="N7">
-        <v>7477206</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>26</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>144964</v>
-      </c>
-      <c r="C8">
         <v>917209405</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>4631</v>
       </c>
-      <c r="F8" t="s">
-        <v>69</v>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8">
+        <v>5954</v>
       </c>
       <c r="G8">
-        <v>5954</v>
+        <v>19200</v>
       </c>
       <c r="H8">
-        <v>19200</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2330842</v>
       </c>
       <c r="M8">
-        <v>2330842</v>
+        <v>7512392</v>
       </c>
       <c r="N8">
-        <v>7512392</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>19</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>445792</v>
-      </c>
-      <c r="C9">
         <v>982085160</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
         <v>3024</v>
       </c>
-      <c r="F9" t="s">
-        <v>70</v>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>1360</v>
       </c>
       <c r="G9">
-        <v>1360</v>
+        <v>33200</v>
       </c>
       <c r="H9">
-        <v>33200</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>1261</v>
       </c>
       <c r="K9">
         <v>1261</v>
       </c>
       <c r="L9">
-        <v>1261</v>
+        <v>1973686</v>
       </c>
       <c r="M9">
-        <v>1973686</v>
+        <v>5534933</v>
       </c>
       <c r="N9">
-        <v>5534933</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>33</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>129863</v>
-      </c>
-      <c r="C10">
         <v>916170858</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <v>301</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <v>277</v>
       </c>
       <c r="G10">
-        <v>277</v>
+        <v>10850</v>
       </c>
       <c r="H10">
-        <v>10850</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>998</v>
       </c>
       <c r="K10">
         <v>998</v>
       </c>
       <c r="L10">
-        <v>998</v>
+        <v>1824768</v>
       </c>
       <c r="M10">
-        <v>1824768</v>
+        <v>5241507</v>
       </c>
       <c r="N10">
-        <v>5241507</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>546522</v>
-      </c>
-      <c r="C11">
         <v>990209332</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
         <v>301</v>
       </c>
-      <c r="F11" t="s">
-        <v>71</v>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>484</v>
       </c>
       <c r="G11">
-        <v>484</v>
+        <v>18130</v>
       </c>
       <c r="H11">
-        <v>18130</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1799689</v>
       </c>
       <c r="M11">
-        <v>1799689</v>
+        <v>6763083</v>
       </c>
       <c r="N11">
-        <v>6763083</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>614105</v>
-      </c>
-      <c r="C12">
         <v>995541432</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
         <v>5055</v>
       </c>
-      <c r="F12" t="s">
-        <v>72</v>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>7200</v>
       </c>
       <c r="G12">
-        <v>7200</v>
+        <v>20130</v>
       </c>
       <c r="H12">
-        <v>20130</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
       </c>
       <c r="K12">
         <v>255</v>
       </c>
       <c r="L12">
-        <v>255</v>
+        <v>1464409</v>
       </c>
       <c r="M12">
-        <v>1464409</v>
+        <v>2681483</v>
       </c>
       <c r="N12">
-        <v>2681483</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91746</v>
-      </c>
-      <c r="C13">
         <v>913536770</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
         <v>301</v>
       </c>
-      <c r="F13" t="s">
-        <v>71</v>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>278</v>
       </c>
       <c r="G13">
-        <v>278</v>
+        <v>23990</v>
       </c>
       <c r="H13">
-        <v>23990</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>1061</v>
       </c>
       <c r="K13">
         <v>1061</v>
       </c>
       <c r="L13">
-        <v>1061</v>
+        <v>1457103</v>
       </c>
       <c r="M13">
-        <v>1457103</v>
+        <v>4949772</v>
       </c>
       <c r="N13">
-        <v>4949772</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>23</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>348164</v>
-      </c>
-      <c r="C14">
         <v>941218555</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
-        <v>71</v>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>379</v>
       </c>
       <c r="G14">
-        <v>379</v>
+        <v>20590</v>
       </c>
       <c r="H14">
-        <v>20590</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J14">
+        <v>293</v>
       </c>
       <c r="K14">
         <v>293</v>
       </c>
       <c r="L14">
-        <v>293</v>
+        <v>1357553</v>
       </c>
       <c r="M14">
-        <v>1357553</v>
+        <v>2032685</v>
       </c>
       <c r="N14">
-        <v>2032685</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>343211</v>
-      </c>
-      <c r="C15">
         <v>936738540</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
         <v>4204</v>
       </c>
-      <c r="F15" t="s">
-        <v>73</v>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>4639</v>
       </c>
       <c r="G15">
-        <v>4639</v>
+        <v>28920</v>
       </c>
       <c r="H15">
-        <v>28920</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J15">
+        <v>1250</v>
       </c>
       <c r="K15">
         <v>1250</v>
       </c>
       <c r="L15">
-        <v>1250</v>
+        <v>1264271</v>
       </c>
       <c r="M15">
-        <v>1264271</v>
+        <v>3996765</v>
       </c>
       <c r="N15">
-        <v>3996765</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>380246</v>
-      </c>
-      <c r="C16">
         <v>964976430</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
         <v>1528</v>
       </c>
-      <c r="F16" t="s">
-        <v>74</v>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <v>6222</v>
       </c>
       <c r="G16">
-        <v>6222</v>
+        <v>31090</v>
       </c>
       <c r="H16">
-        <v>31090</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J16">
+        <v>1017</v>
       </c>
       <c r="K16">
         <v>1017</v>
       </c>
       <c r="L16">
-        <v>1017</v>
+        <v>1219054</v>
       </c>
       <c r="M16">
-        <v>1219054</v>
+        <v>3110500</v>
       </c>
       <c r="N16">
-        <v>3110500</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>31</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42594</v>
-      </c>
-      <c r="C17">
         <v>886953402</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
         <v>5047</v>
       </c>
-      <c r="F17" t="s">
-        <v>75</v>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>7863</v>
       </c>
       <c r="G17">
-        <v>7863</v>
+        <v>21200</v>
       </c>
       <c r="H17">
-        <v>21200</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J17">
+        <v>236</v>
       </c>
       <c r="K17">
         <v>236</v>
       </c>
       <c r="L17">
-        <v>236</v>
+        <v>1156680</v>
       </c>
       <c r="M17">
-        <v>1156680</v>
+        <v>1568977</v>
       </c>
       <c r="N17">
-        <v>1568977</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>21</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27551</v>
-      </c>
-      <c r="C18">
         <v>833888692</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
         <v>4601</v>
       </c>
-      <c r="F18" t="s">
-        <v>76</v>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>5254</v>
       </c>
       <c r="G18">
-        <v>5254</v>
+        <v>28130</v>
       </c>
       <c r="H18">
-        <v>28130</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>709</v>
       </c>
       <c r="K18">
         <v>709</v>
       </c>
       <c r="L18">
-        <v>709</v>
+        <v>1136568</v>
       </c>
       <c r="M18">
-        <v>1136568</v>
+        <v>3859300</v>
       </c>
       <c r="N18">
-        <v>3859300</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>28</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>427225</v>
-      </c>
-      <c r="C19">
         <v>980038300</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
         <v>3443</v>
       </c>
-      <c r="F19" t="s">
-        <v>77</v>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>2830</v>
       </c>
       <c r="G19">
-        <v>2830</v>
+        <v>25400</v>
       </c>
       <c r="H19">
-        <v>25400</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J19">
+        <v>903</v>
       </c>
       <c r="K19">
         <v>903</v>
       </c>
       <c r="L19">
-        <v>903</v>
+        <v>1123955</v>
       </c>
       <c r="M19">
-        <v>1123955</v>
+        <v>2404973</v>
       </c>
       <c r="N19">
-        <v>2404973</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>25</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>465334</v>
-      </c>
-      <c r="C20">
         <v>984329075</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
         <v>1103</v>
       </c>
-      <c r="F20" t="s">
-        <v>78</v>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>4077</v>
       </c>
       <c r="G20">
-        <v>4077</v>
+        <v>30116</v>
       </c>
       <c r="H20">
-        <v>30116</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J20">
+        <v>953</v>
       </c>
       <c r="K20">
         <v>953</v>
       </c>
       <c r="L20">
-        <v>953</v>
+        <v>1094937</v>
       </c>
       <c r="M20">
-        <v>1094937</v>
+        <v>6004716</v>
       </c>
       <c r="N20">
-        <v>6004716</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>30</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>517723</v>
-      </c>
-      <c r="C21">
         <v>988996564</v>
       </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
         <v>3806</v>
       </c>
-      <c r="F21" t="s">
-        <v>79</v>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>3936</v>
       </c>
       <c r="G21">
-        <v>3936</v>
+        <v>33120</v>
       </c>
       <c r="H21">
-        <v>33120</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J21">
+        <v>1089</v>
       </c>
       <c r="K21">
         <v>1089</v>
       </c>
       <c r="L21">
-        <v>1089</v>
+        <v>1056101</v>
       </c>
       <c r="M21">
-        <v>1056101</v>
+        <v>1947528</v>
       </c>
       <c r="N21">
-        <v>1947528</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>33</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>349482</v>
-      </c>
-      <c r="C22">
         <v>942524544</v>
       </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
         <v>4204</v>
       </c>
-      <c r="F22" t="s">
-        <v>73</v>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>4639</v>
       </c>
       <c r="G22">
-        <v>4639</v>
+        <v>28920</v>
       </c>
       <c r="H22">
-        <v>28920</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J22">
+        <v>632</v>
       </c>
       <c r="K22">
         <v>632</v>
       </c>
       <c r="L22">
-        <v>632</v>
+        <v>908293</v>
       </c>
       <c r="M22">
-        <v>908293</v>
+        <v>2346153</v>
       </c>
       <c r="N22">
-        <v>2346153</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>28</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>347731</v>
-      </c>
-      <c r="C23">
         <v>940712580</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
         <v>5001</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>7045</v>
       </c>
       <c r="G23">
-        <v>7045</v>
+        <v>10820</v>
       </c>
       <c r="H23">
-        <v>10820</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J23">
+        <v>449</v>
       </c>
       <c r="K23">
         <v>449</v>
       </c>
       <c r="L23">
-        <v>449</v>
+        <v>836462</v>
       </c>
       <c r="M23">
-        <v>836462</v>
+        <v>2268027</v>
       </c>
       <c r="N23">
-        <v>2268027</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>341090</v>
-      </c>
-      <c r="C24">
         <v>934863909</v>
       </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
         <v>301</v>
       </c>
-      <c r="F24" t="s">
-        <v>71</v>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>484</v>
       </c>
       <c r="G24">
-        <v>484</v>
+        <v>20110</v>
       </c>
       <c r="H24">
-        <v>20110</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J24">
+        <v>203</v>
       </c>
       <c r="K24">
         <v>203</v>
       </c>
       <c r="L24">
-        <v>203</v>
+        <v>831776</v>
       </c>
       <c r="M24">
-        <v>831776</v>
+        <v>1824240</v>
       </c>
       <c r="N24">
-        <v>1824240</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1925</v>
-      </c>
-      <c r="C25">
         <v>812750062</v>
       </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
         <v>3805</v>
       </c>
-      <c r="F25" t="s">
-        <v>80</v>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>3270</v>
       </c>
       <c r="G25">
-        <v>3270</v>
+        <v>16100</v>
       </c>
       <c r="H25">
-        <v>16100</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J25">
+        <v>435</v>
       </c>
       <c r="K25">
         <v>435</v>
       </c>
       <c r="L25">
-        <v>435</v>
+        <v>772333</v>
       </c>
       <c r="M25">
-        <v>772333</v>
+        <v>2305740</v>
       </c>
       <c r="N25">
-        <v>2305740</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>204946</v>
-      </c>
-      <c r="C26">
         <v>921186037</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
         <v>3807</v>
       </c>
-      <c r="F26" t="s">
-        <v>81</v>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>3716</v>
       </c>
       <c r="G26">
-        <v>3716</v>
+        <v>27120</v>
       </c>
       <c r="H26">
-        <v>27120</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J26">
+        <v>749</v>
       </c>
       <c r="K26">
         <v>749</v>
       </c>
       <c r="L26">
-        <v>749</v>
+        <v>762506</v>
       </c>
       <c r="M26">
-        <v>762506</v>
+        <v>3326836</v>
       </c>
       <c r="N26">
-        <v>3326836</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>27</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>404233</v>
-      </c>
-      <c r="C27">
         <v>976388097</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27">
         <v>3029</v>
       </c>
-      <c r="F27" t="s">
-        <v>82</v>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>1470</v>
       </c>
       <c r="G27">
-        <v>1470</v>
+        <v>11070</v>
       </c>
       <c r="H27">
-        <v>11070</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J27">
+        <v>541</v>
       </c>
       <c r="K27">
         <v>541</v>
       </c>
       <c r="L27">
-        <v>541</v>
+        <v>752589</v>
       </c>
       <c r="M27">
-        <v>752589</v>
+        <v>3410547</v>
       </c>
       <c r="N27">
-        <v>3410547</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>11</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>141918</v>
-      </c>
-      <c r="C28">
         <v>916987110</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
         <v>301</v>
       </c>
-      <c r="F28" t="s">
-        <v>71</v>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <v>558</v>
       </c>
       <c r="G28">
-        <v>558</v>
+        <v>10890</v>
       </c>
       <c r="H28">
-        <v>10890</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J28">
+        <v>338</v>
       </c>
       <c r="K28">
         <v>338</v>
       </c>
       <c r="L28">
-        <v>338</v>
+        <v>751221</v>
       </c>
       <c r="M28">
-        <v>751221</v>
+        <v>2313420</v>
       </c>
       <c r="N28">
-        <v>2313420</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100995</v>
-      </c>
-      <c r="C29">
         <v>914183332</v>
       </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
         <v>301</v>
       </c>
-      <c r="F29" t="s">
-        <v>71</v>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>579</v>
       </c>
       <c r="G29">
-        <v>579</v>
+        <v>10710</v>
       </c>
       <c r="H29">
-        <v>10710</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J29">
+        <v>853</v>
       </c>
       <c r="K29">
         <v>853</v>
       </c>
       <c r="L29">
-        <v>853</v>
+        <v>730907</v>
       </c>
       <c r="M29">
-        <v>730907</v>
+        <v>2006363</v>
       </c>
       <c r="N29">
-        <v>2006363</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>10</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>405135</v>
-      </c>
-      <c r="C30">
         <v>976543718</v>
       </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
         <v>5060</v>
       </c>
-      <c r="F30" t="s">
-        <v>83</v>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30">
+        <v>7900</v>
       </c>
       <c r="G30">
-        <v>7900</v>
+        <v>10209</v>
       </c>
       <c r="H30">
-        <v>10209</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J30">
+        <v>256</v>
       </c>
       <c r="K30">
         <v>256</v>
       </c>
       <c r="L30">
-        <v>256</v>
+        <v>632403</v>
       </c>
       <c r="M30">
-        <v>632403</v>
+        <v>2911806</v>
       </c>
       <c r="N30">
-        <v>2911806</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>10</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>68858</v>
-      </c>
-      <c r="C31">
         <v>912007782</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
         <v>1506</v>
       </c>
-      <c r="F31" t="s">
-        <v>84</v>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>6415</v>
       </c>
       <c r="G31">
-        <v>6415</v>
+        <v>27400</v>
       </c>
       <c r="H31">
-        <v>27400</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J31">
+        <v>469</v>
       </c>
       <c r="K31">
         <v>469</v>
       </c>
       <c r="L31">
-        <v>469</v>
+        <v>614454</v>
       </c>
       <c r="M31">
-        <v>614454</v>
+        <v>1679096</v>
       </c>
       <c r="N31">
-        <v>1679096</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>27</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>289138</v>
-      </c>
-      <c r="C32">
         <v>927124238</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
         <v>3025</v>
       </c>
-      <c r="F32" t="s">
-        <v>85</v>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32">
+        <v>1385</v>
       </c>
       <c r="G32">
-        <v>1385</v>
+        <v>28990</v>
       </c>
       <c r="H32">
-        <v>28990</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="J32">
+        <v>260</v>
       </c>
       <c r="K32">
         <v>260</v>
       </c>
       <c r="L32">
-        <v>260</v>
+        <v>602000</v>
       </c>
       <c r="M32">
-        <v>602000</v>
+        <v>2127000</v>
       </c>
       <c r="N32">
-        <v>2127000</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>28</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>347156</v>
-      </c>
-      <c r="C33">
         <v>940193575</v>
       </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
         <v>4613</v>
       </c>
-      <c r="F33" t="s">
-        <v>86</v>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33">
+        <v>5420</v>
       </c>
       <c r="G33">
-        <v>5420</v>
+        <v>33120</v>
       </c>
       <c r="H33">
-        <v>33120</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J33">
+        <v>472</v>
       </c>
       <c r="K33">
         <v>472</v>
       </c>
       <c r="L33">
-        <v>472</v>
+        <v>601351</v>
       </c>
       <c r="M33">
-        <v>601351</v>
+        <v>1930915</v>
       </c>
       <c r="N33">
-        <v>1930915</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>33</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>424074</v>
-      </c>
-      <c r="C34">
         <v>979776233</v>
       </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
         <v>1112</v>
       </c>
-      <c r="F34" t="s">
-        <v>87</v>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>4460</v>
       </c>
       <c r="G34">
-        <v>4460</v>
+        <v>16232</v>
       </c>
       <c r="H34">
-        <v>16232</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
-      </c>
-      <c r="J34" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J34">
+        <v>655</v>
       </c>
       <c r="K34">
         <v>655</v>
       </c>
       <c r="L34">
-        <v>655</v>
+        <v>600615</v>
       </c>
       <c r="M34">
-        <v>600615</v>
+        <v>1972370</v>
       </c>
       <c r="N34">
-        <v>1972370</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>16</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>402920</v>
-      </c>
-      <c r="C35">
         <v>976144163</v>
       </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
         <v>1875</v>
       </c>
-      <c r="F35" t="s">
-        <v>88</v>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35">
+        <v>8270</v>
       </c>
       <c r="G35">
-        <v>8270</v>
+        <v>23990</v>
       </c>
       <c r="H35">
-        <v>23990</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J35">
+        <v>151</v>
       </c>
       <c r="K35">
         <v>151</v>
       </c>
       <c r="L35">
-        <v>151</v>
+        <v>588581</v>
       </c>
       <c r="M35">
-        <v>588581</v>
+        <v>1180880</v>
       </c>
       <c r="N35">
-        <v>1180880</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>23</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>462271</v>
-      </c>
-      <c r="C36">
         <v>984040849</v>
       </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
         <v>301</v>
       </c>
-      <c r="F36" t="s">
-        <v>71</v>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <v>154</v>
       </c>
       <c r="G36">
-        <v>154</v>
+        <v>33170</v>
       </c>
       <c r="H36">
-        <v>33170</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J36">
+        <v>632</v>
       </c>
       <c r="K36">
         <v>632</v>
       </c>
       <c r="L36">
-        <v>632</v>
+        <v>580626</v>
       </c>
       <c r="M36">
-        <v>580626</v>
+        <v>1194674</v>
       </c>
       <c r="N36">
-        <v>1194674</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>33</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>420211</v>
-      </c>
-      <c r="C37">
         <v>979473672</v>
       </c>
-      <c r="D37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
         <v>3006</v>
       </c>
-      <c r="F37" t="s">
-        <v>67</v>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>3611</v>
       </c>
       <c r="G37">
-        <v>3611</v>
+        <v>29320</v>
       </c>
       <c r="H37">
-        <v>29320</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J37">
+        <v>552</v>
       </c>
       <c r="K37">
         <v>552</v>
       </c>
       <c r="L37">
-        <v>552</v>
+        <v>557045</v>
       </c>
       <c r="M37">
-        <v>557045</v>
+        <v>1650043</v>
       </c>
       <c r="N37">
-        <v>1650043</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>29</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>394912</v>
-      </c>
-      <c r="C38">
         <v>971654570</v>
       </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
         <v>1506</v>
       </c>
-      <c r="F38" t="s">
-        <v>84</v>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>6422</v>
       </c>
       <c r="G38">
-        <v>6422</v>
+        <v>13929</v>
       </c>
       <c r="H38">
-        <v>13929</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J38">
+        <v>299</v>
       </c>
       <c r="K38">
         <v>299</v>
       </c>
       <c r="L38">
-        <v>299</v>
+        <v>548542</v>
       </c>
       <c r="M38">
-        <v>548542</v>
+        <v>962893</v>
       </c>
       <c r="N38">
-        <v>962893</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>13</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>450577</v>
-      </c>
-      <c r="C39">
         <v>982715040</v>
       </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
         <v>1124</v>
       </c>
-      <c r="F39" t="s">
-        <v>89</v>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39">
+        <v>4055</v>
       </c>
       <c r="G39">
-        <v>4055</v>
+        <v>33160</v>
       </c>
       <c r="H39">
-        <v>33160</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J39">
+        <v>307</v>
       </c>
       <c r="K39">
         <v>307</v>
       </c>
       <c r="L39">
-        <v>307</v>
+        <v>538896</v>
       </c>
       <c r="M39">
-        <v>538896</v>
+        <v>1819952</v>
       </c>
       <c r="N39">
-        <v>1819952</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>33</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>80100</v>
-      </c>
-      <c r="C40">
         <v>912762203</v>
       </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
         <v>4627</v>
       </c>
-      <c r="F40" t="s">
-        <v>90</v>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40">
+        <v>5305</v>
       </c>
       <c r="G40">
-        <v>5305</v>
+        <v>28130</v>
       </c>
       <c r="H40">
-        <v>28130</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
-      </c>
-      <c r="J40" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J40">
+        <v>75</v>
       </c>
       <c r="K40">
         <v>75</v>
       </c>
       <c r="L40">
-        <v>75</v>
+        <v>527115</v>
       </c>
       <c r="M40">
-        <v>527115</v>
+        <v>3015326</v>
       </c>
       <c r="N40">
-        <v>3015326</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>28</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>61363</v>
-      </c>
-      <c r="C41">
         <v>911161230</v>
       </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41">
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
         <v>301</v>
       </c>
-      <c r="F41" t="s">
-        <v>71</v>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>277</v>
       </c>
       <c r="G41">
-        <v>277</v>
+        <v>20410</v>
       </c>
       <c r="H41">
-        <v>20410</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J41">
+        <v>274</v>
       </c>
       <c r="K41">
         <v>274</v>
       </c>
       <c r="L41">
-        <v>274</v>
+        <v>519652</v>
       </c>
       <c r="M41">
-        <v>519652</v>
+        <v>1904814</v>
       </c>
       <c r="N41">
-        <v>1904814</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>20</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>502967</v>
-      </c>
-      <c r="C42">
         <v>988044113</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42">
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
         <v>1103</v>
       </c>
-      <c r="F42" t="s">
-        <v>78</v>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42">
+        <v>4016</v>
       </c>
       <c r="G42">
-        <v>4016</v>
+        <v>10910</v>
       </c>
       <c r="H42">
-        <v>10910</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J42" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J42">
+        <v>298</v>
       </c>
       <c r="K42">
         <v>298</v>
       </c>
       <c r="L42">
-        <v>298</v>
+        <v>514902</v>
       </c>
       <c r="M42">
-        <v>514902</v>
+        <v>10488544</v>
       </c>
       <c r="N42">
-        <v>10488544</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>10</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>483248</v>
-      </c>
-      <c r="C43">
         <v>986228608</v>
       </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43">
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
         <v>301</v>
       </c>
-      <c r="F43" t="s">
-        <v>71</v>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>277</v>
       </c>
       <c r="G43">
-        <v>277</v>
+        <v>20150</v>
       </c>
       <c r="H43">
-        <v>20150</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="J43">
+        <v>647</v>
       </c>
       <c r="K43">
         <v>647</v>
       </c>
       <c r="L43">
-        <v>647</v>
+        <v>508000</v>
       </c>
       <c r="M43">
-        <v>508000</v>
+        <v>3307000</v>
       </c>
       <c r="N43">
-        <v>3307000</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>20</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118889</v>
-      </c>
-      <c r="C44">
         <v>915442552</v>
       </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
         <v>1103</v>
       </c>
-      <c r="F44" t="s">
-        <v>78</v>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44">
+        <v>4016</v>
       </c>
       <c r="G44">
-        <v>4016</v>
+        <v>10910</v>
       </c>
       <c r="H44">
-        <v>10910</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" t="s">
-        <v>140</v>
+        <v>96</v>
+      </c>
+      <c r="J44">
+        <v>511</v>
       </c>
       <c r="K44">
         <v>511</v>
       </c>
       <c r="L44">
-        <v>511</v>
+        <v>507000</v>
       </c>
       <c r="M44">
-        <v>507000</v>
+        <v>3384000</v>
       </c>
       <c r="N44">
-        <v>3384000</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>10</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>151674</v>
-      </c>
-      <c r="C45">
         <v>917648689</v>
       </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
         <v>3030</v>
       </c>
-      <c r="F45" t="s">
-        <v>91</v>
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45">
+        <v>2007</v>
       </c>
       <c r="G45">
-        <v>2007</v>
+        <v>33160</v>
       </c>
       <c r="H45">
-        <v>33160</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J45">
+        <v>415</v>
       </c>
       <c r="K45">
         <v>415</v>
       </c>
       <c r="L45">
-        <v>415</v>
+        <v>499235</v>
       </c>
       <c r="M45">
-        <v>499235</v>
+        <v>832583</v>
       </c>
       <c r="N45">
-        <v>832583</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>33</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>352750</v>
-      </c>
-      <c r="C46">
         <v>945772042</v>
       </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
         <v>301</v>
       </c>
-      <c r="F46" t="s">
-        <v>71</v>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46">
+        <v>978</v>
       </c>
       <c r="G46">
-        <v>978</v>
+        <v>20110</v>
       </c>
       <c r="H46">
-        <v>20110</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
-      </c>
-      <c r="J46" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J46">
+        <v>196</v>
       </c>
       <c r="K46">
         <v>196</v>
       </c>
       <c r="L46">
-        <v>196</v>
+        <v>486919</v>
       </c>
       <c r="M46">
-        <v>486919</v>
+        <v>986390</v>
       </c>
       <c r="N46">
-        <v>986390</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>20</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>449145</v>
-      </c>
-      <c r="C47">
         <v>982483131</v>
       </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47">
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
         <v>301</v>
       </c>
-      <c r="F47" t="s">
-        <v>71</v>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47">
+        <v>349</v>
       </c>
       <c r="G47">
-        <v>349</v>
+        <v>32500</v>
       </c>
       <c r="H47">
-        <v>32500</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>482259</v>
       </c>
       <c r="M47">
-        <v>482259</v>
+        <v>496068</v>
       </c>
       <c r="N47">
-        <v>496068</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>32</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>345834</v>
-      </c>
-      <c r="C48">
         <v>938937583</v>
       </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
         <v>3801</v>
       </c>
-      <c r="F48" t="s">
-        <v>92</v>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48">
+        <v>3183</v>
       </c>
       <c r="G48">
-        <v>3183</v>
+        <v>26600</v>
       </c>
       <c r="H48">
-        <v>26600</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
-      </c>
-      <c r="J48" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J48">
+        <v>260</v>
       </c>
       <c r="K48">
         <v>260</v>
       </c>
       <c r="L48">
-        <v>260</v>
+        <v>475290</v>
       </c>
       <c r="M48">
-        <v>475290</v>
+        <v>1634882</v>
       </c>
       <c r="N48">
-        <v>1634882</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>26</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>344612</v>
-      </c>
-      <c r="C49">
         <v>937843860</v>
       </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49">
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
         <v>1868</v>
       </c>
-      <c r="F49" t="s">
-        <v>93</v>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49">
+        <v>8430</v>
       </c>
       <c r="G49">
-        <v>8430</v>
+        <v>10910</v>
       </c>
       <c r="H49">
-        <v>10910</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J49">
+        <v>231</v>
       </c>
       <c r="K49">
         <v>231</v>
       </c>
       <c r="L49">
-        <v>231</v>
+        <v>472935</v>
       </c>
       <c r="M49">
-        <v>472935</v>
+        <v>9659833</v>
       </c>
       <c r="N49">
-        <v>9659833</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>10</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>191416</v>
-      </c>
-      <c r="C50">
         <v>920292046</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>1108</v>
+      </c>
+      <c r="E50" t="s">
         <v>64</v>
       </c>
-      <c r="E50">
-        <v>1108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>66</v>
+      <c r="F50">
+        <v>4313</v>
       </c>
       <c r="G50">
-        <v>4313</v>
+        <v>29310</v>
       </c>
       <c r="H50">
-        <v>29310</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="J50">
+        <v>326</v>
       </c>
       <c r="K50">
         <v>326</v>
       </c>
       <c r="L50">
-        <v>326</v>
+        <v>469035</v>
       </c>
       <c r="M50">
-        <v>469035</v>
+        <v>1677693</v>
       </c>
       <c r="N50">
-        <v>1677693</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>29</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>185203</v>
-      </c>
-      <c r="C51">
         <v>919876522</v>
       </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51">
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
         <v>4223</v>
       </c>
-      <c r="F51" t="s">
-        <v>94</v>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51">
+        <v>4706</v>
       </c>
       <c r="G51">
-        <v>4706</v>
+        <v>33120</v>
       </c>
       <c r="H51">
-        <v>33120</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
-      </c>
-      <c r="J51" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="J51">
+        <v>365</v>
       </c>
       <c r="K51">
         <v>365</v>
       </c>
       <c r="L51">
-        <v>365</v>
+        <v>465237</v>
       </c>
       <c r="M51">
-        <v>465237</v>
+        <v>792469</v>
       </c>
       <c r="N51">
-        <v>792469</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>33</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
         <v>0</v>
       </c>
     </row>
